--- a/testdata/nirvi_a.xlsx
+++ b/testdata/nirvi_a.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Общее" sheetId="1" r:id="rId1"/>
-    <sheet name="Описание" sheetId="2" r:id="rId2"/>
+    <sheet name="Описание" sheetId="2" r:id="rId1"/>
+    <sheet name="Слова" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Язык 1</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>inkerikot</t>
-  </si>
-  <si>
-    <t>ižora</t>
   </si>
   <si>
     <t>conj</t>
@@ -519,10 +513,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +659,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -580,24 +672,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,102 +688,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="20.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testdata/nirvi_a.xlsx
+++ b/testdata/nirvi_a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Описание" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Язык 1</t>
   </si>
@@ -120,13 +120,37 @@
   </si>
   <si>
     <t>aBi | api (ala)</t>
+  </si>
+  <si>
+    <t>В файле две вкладки. Первая — справочная. В соответствии с указанием в ней будут выставлены настройки массовой загрузки.</t>
+  </si>
+  <si>
+    <t>Вторая — слова и переводы."1" и "2" — это номера языков с первой вкладки.</t>
+  </si>
+  <si>
+    <t>http://slovari.yandex.ru/%D0%BA%D0%BE%D1%88%D0%BA%D0%B0/%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B4/</t>
+  </si>
+  <si>
+    <t>тут ограничением будет "(для лазания на столбы)" или "(электрического крана)".</t>
+  </si>
+  <si>
+    <t>"Написание" — для слова заполняется, если есть официальная орфография. Для ижорского ВСЕГДА пусто.</t>
+  </si>
+  <si>
+    <t>"Произношение" может быть, например, в "учебной", в МФА или просто в той, в которой приведено в источнике. Варианты произношения (или даже написания, такое может быть, если язык имеет несколько литературных норм, как английский) указываются через вертикальную черту. Диалект в скобках (везде одинаково должно быть, например ala и soi).</t>
+  </si>
+  <si>
+    <t>"Часть речи" желательно указывать принятым английским сокращением, но можно и по-русски или по-фински. Главное, чтобы во всём файле было одинаково.</t>
+  </si>
+  <si>
+    <t>"Ограничение перевода" — это, например:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +163,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -192,10 +225,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,8 +246,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +640,50 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -613,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
